--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE2A11-E248-C74D-B4EC-B4B0C1026BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F6B9E-7F08-F747-8762-E284C3B24390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13080" yWindow="900" windowWidth="21120" windowHeight="19980" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>df_Facts_label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>df_Fact_Description</t>
   </si>
@@ -50,12 +47,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Net Sales</t>
-  </si>
-  <si>
     <t>Cost of Sales</t>
   </si>
   <si>
@@ -72,6 +63,9 @@
   </si>
   <si>
     <t>Sales general and administrative costs</t>
+  </si>
+  <si>
+    <t>df_Facts_us_gaap_references</t>
   </si>
 </sst>
 </file>
@@ -115,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,9 +123,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +441,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,13 +455,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -478,58 +469,54 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F6B9E-7F08-F747-8762-E284C3B24390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A063786-24C2-604C-B436-7095F97E6F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13080" yWindow="900" windowWidth="21120" windowHeight="19980" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>df_Fact_Description</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Cost of Sales</t>
-  </si>
-  <si>
-    <t>Cost of Goods</t>
-  </si>
-  <si>
-    <t>Cost of Products Sold</t>
-  </si>
-  <si>
     <t>Cost of Revenue</t>
   </si>
   <si>
@@ -66,13 +57,130 @@
   </si>
   <si>
     <t>df_Facts_us_gaap_references</t>
+  </si>
+  <si>
+    <t>Amount of revenue recognized from goods sold, services rendered, insurance premiums, or other activities that constitute an earning process. Includes, but is not limited to, investment and interest income before deduction of interest expense when recognized as a component of revenue, and sales and trading gain (loss).</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>The aggregate cost of goods produced and sold and services rendered during the reporting period.</t>
+  </si>
+  <si>
+    <t>CostOfRevenue</t>
+  </si>
+  <si>
+    <t>The aggregate costs related to goods produced and sold and services rendered by an entity during the reporting period. This excludes costs incurred during the reporting period related to financial services rendered and other revenue generating activities.</t>
+  </si>
+  <si>
+    <t>CostOfGoodsAndServicesSold</t>
+  </si>
+  <si>
+    <t>Total costs related to goods produced and sold during the reporting period.</t>
+  </si>
+  <si>
+    <t>CostOfGoodsSold</t>
+  </si>
+  <si>
+    <t>The aggregate costs incurred (1) in a planned search or critical investigation aimed at discovery of new knowledge with the hope that such knowledge will be useful in developing a new product or service, a new process or technique, or in bringing about a significant improvement to an existing product or process; or (2) to translate research findings or other knowledge into a plan or design for a new product or process or for a significant improvement to an existing product or process whether intended for sale or the entity's use, during the reporting period charged to research and development projects, including the costs of developing computer software up to the point in time of achieving technological feasibility, and costs allocated in accounting for a business combination to in-process projects deemed to have no alternative future use.</t>
+  </si>
+  <si>
+    <t>ResearchAndDevelopmentExpense</t>
+  </si>
+  <si>
+    <t>The aggregate total costs related to selling a firm's product and services, as well as all other general and administrative expenses. Direct selling expenses (for example, credit, warranty, and advertising) are expenses that can be directly linked to the sale of specific products. Indirect selling expenses are expenses that cannot be directly linked to the sale of specific products, for example telephone expenses, Internet, and postal charges. General and administrative expenses include salaries of non-sales personnel, rent, utilities, communication, etc.</t>
+  </si>
+  <si>
+    <t>SellingGeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>Aggregate revenue less cost of goods and services sold or operating expenses directly attributable to the revenue generation activity.</t>
+  </si>
+  <si>
+    <t>GrossProfit</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>The net result for the period of deducting operating expenses from operating revenues.</t>
+  </si>
+  <si>
+    <t>OperatingIncomeLoss</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Amount before accretion (amortization) of purchase discount (premium) of interest income on nonoperating securities.</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>InvestmentIncomeInterest</t>
+  </si>
+  <si>
+    <t>Amount of the cost of borrowed funds accounted for as interest expense.</t>
+  </si>
+  <si>
+    <t>InterestExpense</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>OtherNonoperatingIncomeExpense</t>
+  </si>
+  <si>
+    <t>Amount of income (expense) related to nonoperating activities, classified as other.</t>
+  </si>
+  <si>
+    <t>Other income (expense) Net</t>
+  </si>
+  <si>
+    <t>Amount of income (loss) from continuing operations, including income (loss) from equity method investments, before deduction of income tax expense (benefit), and income (loss) attributable to noncontrolling interest.</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesExtraordinaryItemsNoncontrollingInterest</t>
+  </si>
+  <si>
+    <t>Income Before Income Tax</t>
+  </si>
+  <si>
+    <t>Amount of current income tax expense (benefit) and deferred income tax expense (benefit) pertaining to continuing operations.</t>
+  </si>
+  <si>
+    <t>IncomeTaxExpenseBenefit</t>
+  </si>
+  <si>
+    <t>Income Tax Expense (benefit)</t>
+  </si>
+  <si>
+    <t>The portion of profit or loss for the period, net of income taxes, which is attributable to the parent.</t>
+  </si>
+  <si>
+    <t>NetIncomeLoss</t>
+  </si>
+  <si>
+    <t>Net Income (loss)</t>
+  </si>
+  <si>
+    <t>Other Non Operating Income (Loss) Net</t>
+  </si>
+  <si>
+    <t>The consolidated profit or loss for the period, net of income taxes, including the portion attributable to the noncontrolling interest.</t>
+  </si>
+  <si>
+    <t>ProfitLoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +196,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -123,6 +243,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -471,102 +607,185 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -579,9 +798,10 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -589,13 +809,12 @@
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -611,20 +830,15 @@
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\SEC_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A063786-24C2-604C-B436-7095F97E6F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC3E54-FA5B-4BF3-8FEB-650DACAF73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="900" windowWidth="21120" windowHeight="19980" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
-  <si>
-    <t>df_Fact_Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>standardized_incomestatement_label</t>
   </si>
@@ -174,6 +171,15 @@
   </si>
   <si>
     <t>ProfitLoss</t>
+  </si>
+  <si>
+    <t>df_Facts_Description</t>
+  </si>
+  <si>
+    <t>RevenueFromContractWithCustomerExcludingAssessedTax</t>
+  </si>
+  <si>
+    <t>Amount, excluding tax collected from customer, of revenue from satisfaction of performance obligation by transferring promised good or service to customer. Tax collected from customer is tax assessed by governmental authority that is both imposed on and concurrent with specific revenue-producing transaction, including, but not limited to, sales, use, value added and excise.</t>
   </si>
 </sst>
 </file>
@@ -197,24 +203,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -229,40 +230,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,271 +574,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="63.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="63.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="8" customWidth="1"/>
+    <col min="5" max="7" width="11" style="6"/>
+    <col min="8" max="8" width="65.375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\SEC_data_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC3E54-FA5B-4BF3-8FEB-650DACAF73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC5A134-0464-494A-9DC6-94EF308862A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="700" yWindow="860" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>standardized_incomestatement_label</t>
   </si>
@@ -180,13 +180,31 @@
   </si>
   <si>
     <t>Amount, excluding tax collected from customer, of revenue from satisfaction of performance obligation by transferring promised good or service to customer. Tax collected from customer is tax assessed by governmental authority that is both imposed on and concurrent with specific revenue-producing transaction, including, but not limited to, sales, use, value added and excise.</t>
+  </si>
+  <si>
+    <t>SalesRevenueNet</t>
+  </si>
+  <si>
+    <t>Total revenue from sale of goods and services rendered during the reporting period, in the normal course of business, reduced by sales returns and allowances, and sales discounts.</t>
+  </si>
+  <si>
+    <t>Income (Loss) from Continuing Operations before Income Taxes and Minority Interest</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesAndMinorityInterest</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxes</t>
+  </si>
+  <si>
+    <t>Income from continuing operations before income taxes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +227,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,30 +263,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,24 +585,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="63.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="83.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="8" customWidth="1"/>
-    <col min="5" max="7" width="11" style="6"/>
-    <col min="8" max="8" width="65.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="30.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,256 +614,292 @@
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC5A134-0464-494A-9DC6-94EF308862A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C10CF5-86F0-B141-9C2F-D19725BF04D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="860" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>standardized_incomestatement_label</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Income from continuing operations before income taxes.</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesDomestic</t>
+  </si>
+  <si>
+    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesForeign</t>
+  </si>
+  <si>
+    <t>The portion of earnings or loss from continuing operations before income taxes that is attributable to domestic operations.</t>
+  </si>
+  <si>
+    <t>The portion of earnings or loss from continuing operations before income taxes that is attributable to foreign operations, which is defined as Income or Loss generated from operations located outside the entity's country of domicile.</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,55 +815,67 @@
         <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
@@ -859,28 +883,28 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -891,15 +915,25 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_incomestatement.xlsx
+++ b/data/standardized_incomestatement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C10CF5-86F0-B141-9C2F-D19725BF04D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CF2C8-7D1A-9641-A7A7-E17657BE5374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="860" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="1560" yWindow="680" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>standardized_incomestatement_label</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>IncomeTaxExpenseBenefit</t>
-  </si>
-  <si>
-    <t>Income Tax Expense (benefit)</t>
   </si>
   <si>
     <t>The portion of profit or loss for the period, net of income taxes, which is attributable to the parent.</t>
@@ -216,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +242,14 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,6 +288,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +606,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -631,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -645,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -733,7 +739,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -804,10 +810,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -815,10 +821,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,10 +832,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -837,17 +843,17 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -856,24 +862,24 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
     </row>
